--- a/results/JayaFeaturesTrainPrepared/summary_results.xlsx
+++ b/results/JayaFeaturesTrainPrepared/summary_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Best Result" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Best Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,16 +494,16 @@
         <v>0.6284224598930482</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8472727272727273</v>
+        <v>0.4563636363636364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3117647058823529</v>
+        <v>0.9071895424836601</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4370426065162907</v>
+        <v>0.6311111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5803418803418803</v>
+        <v>0.7493316624895572</v>
       </c>
     </row>
     <row r="3">
@@ -524,16 +524,16 @@
         <v>0.536387403446227</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8436363636363637</v>
+        <v>0.7872727272727272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4052287581699346</v>
+        <v>0.4862745098039215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4734128937224912</v>
+        <v>0.5122657952069717</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8425252525252525</v>
+        <v>0.8303030303030303</v>
       </c>
     </row>
     <row r="4">
@@ -554,16 +554,16 @@
         <v>0.6581580510992275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8072727272727274</v>
+        <v>0.7290909090909091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.511764705882353</v>
+        <v>0.6366013071895426</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5140456492401573</v>
+        <v>0.5559803921568628</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7873504273504274</v>
+        <v>0.801048951048951</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,2296 @@
         <v>0.6348247177658942</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8072727272727274</v>
+        <v>0.6690909090909091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4784313725490196</v>
+        <v>0.6699346405228759</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4962678714623794</v>
+        <v>0.5604248366013073</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7781196581196581</v>
+        <v>0.7791866028708134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7516815210932858</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7854545454545455</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7392156862745098</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6517132867132867</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8569467787114846</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5386928104575164</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7872727272727272</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4862745098039215</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5122657952069717</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8303030303030303</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.728562091503268</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6763636363636364</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7745098039215685</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6427472527472528</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8080952380952381</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.744812834224599</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.690909090909091</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8169934640522876</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7113886113886114</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8247058823529411</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7642780748663101</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7890909090909091</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7509803921568627</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6862184873949581</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8696081696081697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5423945335710042</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6290909090909091</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6254901960784314</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4084313725490197</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7740259740259741</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7453119429590018</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6745454545454546</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8633986928104574</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7911616161616162</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8313622291021672</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7563814616755794</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6927272727272726</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8745098039215687</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7952991452991454</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8323712690817953</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7757516339869281</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7509090909090909</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7627450980392156</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8528787878787879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6538591800356507</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7127272727272727</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6594771241830065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5709523809523809</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8025375939849624</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7544385026737969</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6727272727272727</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8418300653594771</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.780952380952381</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8208333333333334</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7329233511586454</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7090909090909091</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7947712418300654</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7402661064425771</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8382467532467534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7623054070112893</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8109090909090909</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7398692810457516</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7093535978984895</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8773767082590611</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6527688651218064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7127272727272727</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6594771241830065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5709523809523809</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8025375939849624</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7811051693404635</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.769090909090909</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8071895424836601</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7938995215311004</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8834733893557424</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.76407605466429</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7072727272727273</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8267973856209151</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7945238095238094</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8645454545454545</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7872935234699939</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8072727272727273</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7509803921568629</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6877923976608187</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8801169590643274</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6527688651218064</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7127272727272727</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6594771241830065</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5709523809523809</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8025375939849624</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7767855020796197</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7672727272727273</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7496732026143791</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.669360902255639</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.866109022556391</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7739512774806891</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6563636363636364</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8869281045751635</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8103174603174603</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8267974283534925</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8166755793226382</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8272727272727274</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7718954248366013</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6885714285714285</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8825396825396826</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6393107546048722</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7346405228758169</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6294934640522876</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7741931904860967</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8216755793226381</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7854545454545455</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7928104575163399</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7176767676767677</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8810160427807487</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8101188354129532</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7163636363636363</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8647058823529411</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7753174603174602</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8469423558897244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8244682115270351</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7472727272727273</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8176470588235294</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7295815295815297</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.852174554032139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6393107546048722</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7346405228758169</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6294934640522876</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7741931904860967</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8130778371954843</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8090909090909092</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7607843137254902</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8069934640522876</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7145454545454546</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8640522875816995</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7634615384615385</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.801509209744504</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6803921568627451</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6361111111111111</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9067543859649122</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6393107546048722</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7346405228758169</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6294934640522876</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7741931904860967</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8194117647058823</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8618181818181819</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7248366013071895</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.659017094017094</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8167439096850861</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.770909090909091</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8169934640522876</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8658333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8393285799168153</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8454545454545455</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7947712418300654</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9040598290598292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5943077837195484</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5727272727272726</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7575163398692811</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6468954248366013</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.7493447056376118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8187581699346407</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6706837606837608</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.931111111111111</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8170766488413548</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7327272727272727</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8849673202614378</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8143006993006994</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8538978015448604</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8301901366607251</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8472727272727273</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7745098039215685</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.710050505050505</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9122058823529411</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>11</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7553535353535354</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7672727272727273</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7594771241830066</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6627752639517345</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8555462519936204</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8274806892453951</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7241830065359478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6889449112978525</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9215007215007216</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.835632798573975</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8522875816993464</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7672077922077923</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8661718020541551</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8325787284610815</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7836601307189542</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7318253968253969</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9192063492063494</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7553535353535354</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7672727272727273</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7594771241830066</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.6627752639517345</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8555462519936204</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8328698752228163</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8836363636363636</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7150326797385621</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6567923579688285</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9266666666666665</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8385918003565063</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.830909090909091</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.807843137254902</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7257631257631256</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8925877192982457</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.83718954248366</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8454545454545455</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7830065359477125</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7091269841269841</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8999686716791981</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>13</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.769382055852644</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8290909090909091</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.7045751633986929</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6240384615384615</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.877948717948718</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8524539512774807</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.8618181818181819</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7823529411764707</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.7149603174603174</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.916528500739027</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>13</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8660368389780155</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9072727272727272</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8071895424836601</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.7351648351648352</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9366666666666668</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>14</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8536898395721926</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8836363636363636</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.7601307189542483</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6952075702075702</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9241353383458648</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7755912061794414</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>14</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8687462863933453</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8818181818181818</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8052287581699347</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.7384615384615384</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.926837606837607</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>14</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8681342840166369</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9236363636363636</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7712418300653596</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.7191919191919192</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9507352941176471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>15</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8471063576945929</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.738562091503268</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7048223834988541</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9857142857142858</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>15</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7755912061794414</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8710516934046346</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9036363636363637</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7836601307189544</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7212703962703962</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9359879336349926</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>15</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8768568033273916</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.7359477124183006</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6952237305178481</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>16</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8281758764111705</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9018181818181817</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.7254901960784315</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6641469641469641</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9359879336349926</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>16</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7755912061794414</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>16</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.872038027332145</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8818181818181818</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.7947712418300654</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7302164502164502</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.921403433168139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.860190136660725</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7470588235294118</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.6991864344805521</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9513725490196079</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8489542483660131</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9236363636363636</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.7392156862745098</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.6813375350140056</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.7756327985739749</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>17</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8611764705882352</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7934640522875818</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.7344932844932844</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>17</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8592038027332144</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7241830065359478</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6783605283605284</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9506372549019607</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8150089126559715</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9054545454545455</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.7052287581699346</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6494047619047618</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9273809523809524</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>18</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7767023172905525</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.634640522875817</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5995308123249299</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9297619047619048</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>18</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8664408793820557</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.8274509803921569</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.7702043054984231</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.927878787878788</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>18</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8513012477718359</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7359477124183007</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.6856599609540786</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9399626517273576</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>19</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8390790255496137</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8654545454545455</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7836601307189542</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.711013986013986</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9096078431372548</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>19</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7767023172905525</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.634640522875817</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.5995308123249299</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9297619047619048</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>19</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8611348781937018</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.8045751633986928</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.7457953810894987</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9225210084033615</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>19</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8492038027332146</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7359477124183007</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.6856599609540786</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9399626517273576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.8654545454545455</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7941176470588236</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.7359615384615384</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9505555555555556</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>20</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7797029114676173</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.6901960784313725</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.6352159605100781</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9145098039215686</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>20</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8687462863933453</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8392156862745098</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.7812362637362638</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9241269841269842</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>20</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8579263220439692</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8261437908496733</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.7919117647058823</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9211363636363636</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +2887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,27 +2944,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6581580510992275</v>
+        <v>0.8768568033273916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8072727272727274</v>
+        <v>0.96</v>
       </c>
       <c r="F2" t="n">
-        <v>0.511764705882353</v>
+        <v>0.7359477124183006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5140456492401573</v>
+        <v>0.6952237305178481</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7873504273504274</v>
+        <v>0.9733333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -694,27 +2974,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6348247177658942</v>
+        <v>0.872038027332145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8072727272727274</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4784313725490196</v>
+        <v>0.7947712418300654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4962678714623794</v>
+        <v>0.7302164502164502</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7781196581196581</v>
+        <v>0.921403433168139</v>
       </c>
     </row>
     <row r="4">
@@ -724,27 +3004,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6284224598930482</v>
+        <v>0.8710516934046346</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8472727272727273</v>
+        <v>0.9036363636363637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3117647058823529</v>
+        <v>0.7836601307189544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4370426065162907</v>
+        <v>0.7212703962703962</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5803418803418803</v>
+        <v>0.9359879336349926</v>
       </c>
     </row>
     <row r="5">
@@ -754,27 +3034,2307 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8687462863933453</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8392156862745098</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7812362637362638</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9241269841269842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8687462863933453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8818181818181818</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8052287581699347</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7384615384615384</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.926837606837607</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8681342840166369</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9236363636363636</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7712418300653596</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7191919191919192</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9507352941176471</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8664408793820557</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8274509803921569</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7702043054984231</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.927878787878788</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8660368389780155</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9072727272727272</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8071895424836601</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7351648351648352</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9366666666666668</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8654545454545455</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7941176470588236</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7359615384615384</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9505555555555556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8611764705882352</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7934640522875818</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7344932844932844</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8611348781937018</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8045751633986928</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7457953810894987</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9225210084033615</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.860190136660725</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7470588235294118</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6991864344805521</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9513725490196079</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8592038027332144</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7241830065359478</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6783605283605284</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9506372549019607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8579263220439692</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8261437908496733</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7919117647058823</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9211363636363636</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8536898395721926</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8836363636363636</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7601307189542483</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6952075702075702</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9241353383458648</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8524539512774807</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8618181818181819</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7823529411764707</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7149603174603174</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.916528500739027</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8513012477718359</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7359477124183007</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6856599609540786</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9399626517273576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8492038027332146</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7359477124183007</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6856599609540786</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9399626517273576</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8489542483660131</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9236363636363636</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7392156862745098</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6813375350140056</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8471063576945929</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.738562091503268</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7048223834988541</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9857142857142858</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8393285799168153</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8454545454545455</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7947712418300654</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9040598290598292</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8390790255496137</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8654545454545455</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7836601307189542</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.711013986013986</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9096078431372548</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8385918003565063</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.830909090909091</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.807843137254902</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7257631257631256</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8925877192982457</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.83718954248366</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8454545454545455</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7830065359477125</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7091269841269841</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8999686716791981</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.835632798573975</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8522875816993464</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7672077922077923</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8661718020541551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8328698752228163</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8836363636363636</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7150326797385621</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6567923579688285</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9266666666666665</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8325787284610815</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7836601307189542</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7318253968253969</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9192063492063494</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8301901366607251</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8472727272727273</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7745098039215685</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.710050505050505</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9122058823529411</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8281758764111705</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9018181818181817</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7254901960784315</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6641469641469641</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9359879336349926</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8274806892453951</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7241830065359478</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6889449112978525</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9215007215007216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8244682115270351</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7472727272727273</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8176470588235294</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7295815295815297</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.852174554032139</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8216755793226381</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7854545454545455</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7928104575163399</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7176767676767677</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8810160427807487</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8194117647058823</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8618181818181819</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7248366013071895</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.659017094017094</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9116666666666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8187581699346407</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6706837606837608</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.931111111111111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8170766488413548</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7327272727272727</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8849673202614378</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8143006993006994</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8538978015448604</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8167439096850861</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.770909090909091</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8169934640522876</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8658333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8166755793226382</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8272727272727274</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7718954248366013</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6885714285714285</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8825396825396826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>18</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8150089126559715</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9054545454545455</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7052287581699346</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6494047619047618</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9273809523809524</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8130778371954843</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8090909090909092</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7607843137254902</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8101188354129532</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7163636363636363</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8647058823529411</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7753174603174602</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8469423558897244</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8069934640522876</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7145454545454546</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8640522875816995</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.7634615384615385</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.801509209744504</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8618181818181817</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6803921568627451</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6361111111111111</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9067543859649122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7872935234699939</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8072727272727273</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7509803921568629</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6877923976608187</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8801169590643274</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7811051693404635</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.769090909090909</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8071895424836601</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7938995215311004</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8834733893557424</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7797029114676173</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6901960784313725</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.6352159605100781</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9145098039215686</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7767855020796197</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7672727272727273</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7496732026143791</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.669360902255639</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.866109022556391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>18</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7767023172905525</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.634640522875817</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5995308123249299</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9297619047619048</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7767023172905525</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.634640522875817</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5995308123249299</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9297619047619048</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7757516339869281</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7509090909090909</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7627450980392156</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8528787878787879</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7756327985739749</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7755912061794414</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>16</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7755912061794414</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>14</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.7755912061794414</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6339869281045752</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6097402597402597</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9312324929971989</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7739512774806891</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6563636363636364</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8869281045751635</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8103174603174603</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8267974283534925</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.769382055852644</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8290909090909091</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.7045751633986929</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6240384615384615</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.877948717948718</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7642780748663101</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7890909090909091</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7509803921568627</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6862184873949581</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8696081696081697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.76407605466429</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7072727272727273</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8267973856209151</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7945238095238094</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8645454545454545</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7623054070112893</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8109090909090909</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.7398692810457516</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7093535978984895</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8773767082590611</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.7563814616755794</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6927272727272726</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8745098039215687</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7952991452991454</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8323712690817953</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7553535353535354</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7672727272727273</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.7594771241830066</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6627752639517345</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8555462519936204</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>11</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.7553535353535354</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7672727272727273</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.7594771241830066</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6627752639517345</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8555462519936204</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7544385026737969</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6727272727272727</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8418300653594771</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.780952380952381</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8208333333333334</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7516815210932858</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7854545454545455</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.7392156862745098</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.6517132867132867</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8569467787114846</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7453119429590018</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6745454545454546</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8633986928104574</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7911616161616162</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8313622291021672</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.744812834224599</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.690909090909091</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8169934640522876</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7113886113886114</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.8247058823529411</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.7329233511586454</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7090909090909091</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.7947712418300654</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.7402661064425771</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.8382467532467534</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.728562091503268</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6763636363636364</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7745098039215685</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.6427472527472528</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.8080952380952381</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6581580510992275</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7290909090909091</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6366013071895426</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.5559803921568628</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.801048951048951</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D70" t="n">
+        <v>0.6538591800356507</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7127272727272727</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6594771241830065</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5709523809523809</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8025375939849624</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6527688651218064</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7127272727272727</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6594771241830065</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5709523809523809</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.8025375939849624</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6527688651218064</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7127272727272727</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6594771241830065</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.5709523809523809</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8025375939849624</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6393107546048722</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7346405228758169</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.6294934640522876</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.7741931904860967</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.6393107546048722</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7346405228758169</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.6294934640522876</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.7741931904860967</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.6393107546048722</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.7346405228758169</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.6294934640522876</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.7741931904860967</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6348247177658942</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6690909090909091</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.6699346405228759</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.5604248366013073</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.7791866028708134</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.6284224598930482</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4563636363636364</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9071895424836601</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.6311111111111111</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.7493316624895572</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5943077837195484</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5727272727272726</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7575163398692811</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.6468954248366013</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.7493447056376118</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5423945335710042</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6290909090909091</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.6254901960784314</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.4084313725490197</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.7740259740259741</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5386928104575164</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7872727272727272</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.4862745098039215</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5122657952069717</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8303030303030303</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>0.536387403446227</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.8436363636363637</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4052287581699346</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4734128937224912</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8425252525252525</v>
+      <c r="E81" t="n">
+        <v>0.7872727272727272</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.4862745098039215</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5122657952069717</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.8303030303030303</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/summary_results.xlsx
+++ b/results/JayaFeaturesTrainPrepared/summary_results.xlsx
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6284224598930482</v>
+        <v>0.6021865715983363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4563636363636364</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9071895424836601</v>
+        <v>0.8150326797385622</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6311111111111111</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7493316624895572</v>
+        <v>0.7511838403142751</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.536387403446227</v>
+        <v>0.3418419489007725</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7872727272727272</v>
+        <v>0.2145454545454545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4862745098039215</v>
+        <v>0.8764705882352942</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5122657952069717</v>
+        <v>0.3941176470588236</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8303030303030303</v>
+        <v>0.6717051467051467</v>
       </c>
     </row>
     <row r="4">
@@ -581,19 +581,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6348247177658942</v>
+        <v>0.6454783125371361</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6690909090909091</v>
+        <v>0.6890909090909091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6699346405228759</v>
+        <v>0.6588235294117648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5604248366013073</v>
+        <v>0.5565864527629234</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7791866028708134</v>
+        <v>0.7854129530600119</v>
       </c>
     </row>
     <row r="6">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7516815210932858</v>
+        <v>0.6958051099227569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7854545454545455</v>
+        <v>0.7672727272727273</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7392156862745098</v>
+        <v>0.6934640522875817</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6517132867132867</v>
+        <v>0.6030283442048149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8569467787114846</v>
+        <v>0.8396193022663612</v>
       </c>
     </row>
     <row r="7">
@@ -641,19 +641,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5386928104575164</v>
+        <v>0.7274509803921569</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7872727272727272</v>
+        <v>0.6963636363636364</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4862745098039215</v>
+        <v>0.7522875816993464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5122657952069717</v>
+        <v>0.6350549450549451</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8303030303030303</v>
+        <v>0.8103174603174603</v>
       </c>
     </row>
     <row r="8">
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.728562091503268</v>
+        <v>0.7274509803921569</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6763636363636364</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7745098039215685</v>
+        <v>0.730065359477124</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6427472527472528</v>
+        <v>0.6342948717948718</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8080952380952381</v>
+        <v>0.8294017094017094</v>
       </c>
     </row>
     <row r="9">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.744812834224599</v>
+        <v>0.7306179441473558</v>
       </c>
       <c r="E9" t="n">
-        <v>0.690909090909091</v>
+        <v>0.7090909090909092</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8169934640522876</v>
+        <v>0.7477124183006536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7113886113886114</v>
+        <v>0.6466880341880341</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8247058823529411</v>
+        <v>0.8216541353383459</v>
       </c>
     </row>
     <row r="10">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7642780748663101</v>
+        <v>0.7319578134284017</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7890909090909091</v>
+        <v>0.769090909090909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7509803921568627</v>
+        <v>0.7156862745098038</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6862184873949581</v>
+        <v>0.6452631578947369</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8696081696081697</v>
+        <v>0.857008547008547</v>
       </c>
     </row>
     <row r="11">
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5423945335710042</v>
+        <v>0.7360754604872252</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6290909090909091</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6254901960784314</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4084313725490197</v>
+        <v>0.6918648018648019</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7740259740259741</v>
+        <v>0.8330392156862745</v>
       </c>
     </row>
     <row r="12">
@@ -791,19 +791,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7453119429590018</v>
+        <v>0.7409506833036245</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6745454545454546</v>
+        <v>0.6927272727272726</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8633986928104574</v>
+        <v>0.8294117647058824</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7911616161616162</v>
+        <v>0.7314102564102565</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8313622291021672</v>
+        <v>0.8344927536231884</v>
       </c>
     </row>
     <row r="13">
@@ -821,19 +821,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.7563814616755794</v>
+        <v>0.7477837195484256</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6927272727272726</v>
+        <v>0.7127272727272728</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8745098039215687</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7952991452991454</v>
+        <v>0.7521212121212122</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8323712690817953</v>
+        <v>0.840316742081448</v>
       </c>
     </row>
     <row r="14">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.7757516339869281</v>
+        <v>0.749313725490196</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7509090909090909</v>
+        <v>0.8618181818181817</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7627450980392156</v>
+        <v>0.64640522875817</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.6167026540710751</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8528787878787879</v>
+        <v>0.9041475483580748</v>
       </c>
     </row>
     <row r="15">
@@ -881,19 +881,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6538591800356507</v>
+        <v>0.7161319073083779</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.6109090909090908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6594771241830065</v>
+        <v>0.8509803921568627</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5709523809523809</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8025375939849624</v>
+        <v>0.7977921727395412</v>
       </c>
     </row>
     <row r="16">
@@ -911,19 +911,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7544385026737969</v>
+        <v>0.7542721330956624</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8418300653594771</v>
+        <v>0.7379084967320262</v>
       </c>
       <c r="G16" t="n">
-        <v>0.780952380952381</v>
+        <v>0.7139592760180996</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8208333333333334</v>
+        <v>0.8591515151515152</v>
       </c>
     </row>
     <row r="17">
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.7329233511586454</v>
+        <v>0.7725074272133096</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.8090909090909092</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7947712418300654</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7402661064425771</v>
+        <v>0.6309803921568627</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8382467532467534</v>
+        <v>0.8756103545577231</v>
       </c>
     </row>
     <row r="18">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7623054070112893</v>
+        <v>0.7618478906714201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8109090909090909</v>
+        <v>0.8072727272727273</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7398692810457516</v>
+        <v>0.6934640522875817</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7093535978984895</v>
+        <v>0.6524641148325359</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8773767082590611</v>
+        <v>0.878954248366013</v>
       </c>
     </row>
     <row r="19">
@@ -1001,19 +1001,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6527688651218064</v>
+        <v>0.7437433155080214</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.7890909090909091</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6594771241830065</v>
+        <v>0.6836601307189543</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5709523809523809</v>
+        <v>0.6205555555555555</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8025375939849624</v>
+        <v>0.8650375939849624</v>
       </c>
     </row>
     <row r="20">
@@ -1031,19 +1031,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7811051693404635</v>
+        <v>0.7724242424242423</v>
       </c>
       <c r="E20" t="n">
-        <v>0.769090909090909</v>
+        <v>0.7290909090909091</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8071895424836601</v>
+        <v>0.7843137254901962</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7938995215311004</v>
+        <v>0.6847402597402598</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8834733893557424</v>
+        <v>0.8412324929971989</v>
       </c>
     </row>
     <row r="21">
@@ -1061,19 +1061,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.76407605466429</v>
+        <v>0.775187165775401</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7072727272727273</v>
+        <v>0.7490909090909091</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8267973856209151</v>
+        <v>0.7941176470588236</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7945238095238094</v>
+        <v>0.6993930905695611</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8645454545454545</v>
+        <v>0.8576076555023924</v>
       </c>
     </row>
     <row r="22">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7872935234699939</v>
+        <v>0.76684789067142</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8072727272727273</v>
+        <v>0.769090909090909</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7509803921568629</v>
+        <v>0.7620915032679738</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6877923976608187</v>
+        <v>0.7220095693779904</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8801169590643274</v>
+        <v>0.8572455648926237</v>
       </c>
     </row>
     <row r="23">
@@ -1121,19 +1121,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6527688651218064</v>
+        <v>0.7559239453357101</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.7672727272727273</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6594771241830065</v>
+        <v>0.7379084967320261</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5709523809523809</v>
+        <v>0.652297410192147</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8025375939849624</v>
+        <v>0.862218045112782</v>
       </c>
     </row>
     <row r="24">
@@ -1151,19 +1151,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7767855020796197</v>
+        <v>0.765632798573975</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7672727272727273</v>
+        <v>0.8072727272727274</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7496732026143791</v>
+        <v>0.7274509803921567</v>
       </c>
       <c r="G24" t="n">
-        <v>0.669360902255639</v>
+        <v>0.6648154477101846</v>
       </c>
       <c r="H24" t="n">
-        <v>0.866109022556391</v>
+        <v>0.879327731092437</v>
       </c>
     </row>
     <row r="25">
@@ -1181,19 +1181,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.7739512774806891</v>
+        <v>0.7881877599524658</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6563636363636364</v>
+        <v>0.6581818181818182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8869281045751635</v>
+        <v>0.8993464052287582</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8103174603174603</v>
+        <v>0.8415584415584416</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8267974283534925</v>
+        <v>0.8281540284097829</v>
       </c>
     </row>
     <row r="26">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8166755793226382</v>
+        <v>0.8025430778371956</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8272727272727274</v>
+        <v>0.770909090909091</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7718954248366013</v>
+        <v>0.7849673202614378</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6885714285714285</v>
+        <v>0.6833333333333332</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8825396825396826</v>
+        <v>0.8568376068376068</v>
       </c>
     </row>
     <row r="27">
@@ -1241,19 +1241,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6393107546048722</v>
+        <v>0.8064111705288175</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7346405228758169</v>
+        <v>0.7117647058823529</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6294934640522876</v>
+        <v>0.6700404858299596</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7741931904860967</v>
+        <v>0.9162121212121213</v>
       </c>
     </row>
     <row r="28">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8216755793226381</v>
+        <v>0.8128282828282829</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7854545454545455</v>
+        <v>0.8036363636363637</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7928104575163399</v>
+        <v>0.769281045751634</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7176767676767677</v>
+        <v>0.7064821143768512</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8810160427807487</v>
+        <v>0.88994461420932</v>
       </c>
     </row>
     <row r="29">
@@ -1301,19 +1301,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8101188354129532</v>
+        <v>0.8100356506238858</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7163636363636363</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8647058823529411</v>
+        <v>0.8320261437908497</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7753174603174602</v>
+        <v>0.7377289377289378</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8469423558897244</v>
+        <v>0.8397619047619047</v>
       </c>
     </row>
     <row r="30">
@@ -1331,19 +1331,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8244682115270351</v>
+        <v>0.8022162804515747</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7472727272727273</v>
+        <v>0.7854545454545455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8176470588235294</v>
+        <v>0.7581699346405228</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7295815295815297</v>
+        <v>0.6859803921568628</v>
       </c>
       <c r="H30" t="n">
-        <v>0.852174554032139</v>
+        <v>0.8627156177156177</v>
       </c>
     </row>
     <row r="31">
@@ -1361,19 +1361,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6393107546048722</v>
+        <v>0.8023826500297089</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.8290909090909091</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7346405228758169</v>
+        <v>0.7261437908496732</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6294934640522876</v>
+        <v>0.6492948717948718</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7741931904860967</v>
+        <v>0.8825</v>
       </c>
     </row>
     <row r="32">
@@ -1391,19 +1391,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8130778371954843</v>
+        <v>0.8032442067736186</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8090909090909092</v>
+        <v>0.8290909090909091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7607843137254902</v>
+        <v>0.738562091503268</v>
       </c>
       <c r="G32" t="n">
-        <v>0.675</v>
+        <v>0.6551098901098901</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8857142857142858</v>
       </c>
     </row>
     <row r="33">
@@ -1421,19 +1421,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8069934640522876</v>
+        <v>0.8178134284016638</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7145454545454546</v>
+        <v>0.6963636363636363</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8640522875816995</v>
+        <v>0.8758169934640524</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7634615384615385</v>
+        <v>0.7849999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8353968253968255</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.801509209744504</v>
+        <v>0.779007724301842</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6803921568627451</v>
+        <v>0.6784313725490195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6361111111111111</v>
+        <v>0.6649122807017543</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9067543859649122</v>
+        <v>0.9053030303030305</v>
       </c>
     </row>
     <row r="35">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6393107546048722</v>
+        <v>0.7988829471182413</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.8654545454545455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7346405228758169</v>
+        <v>0.7143790849673203</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6294934640522876</v>
+        <v>0.6496800258564964</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7741931904860967</v>
+        <v>0.9065800865800865</v>
       </c>
     </row>
     <row r="36">
@@ -1511,19 +1511,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8194117647058823</v>
+        <v>0.8162032085561497</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8618181818181819</v>
+        <v>0.8272727272727274</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7248366013071895</v>
+        <v>0.7725490196078431</v>
       </c>
       <c r="G36" t="n">
-        <v>0.659017094017094</v>
+        <v>0.6888278388278388</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9116666666666667</v>
+        <v>0.8923809523809524</v>
       </c>
     </row>
     <row r="37">
@@ -1541,19 +1541,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8167439096850861</v>
+        <v>0.8198692810457515</v>
       </c>
       <c r="E37" t="n">
-        <v>0.770909090909091</v>
+        <v>0.7872727272727272</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8169934640522876</v>
+        <v>0.8045751633986928</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7412351391298759</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8658333333333333</v>
+        <v>0.8842439431913116</v>
       </c>
     </row>
     <row r="38">
@@ -1571,19 +1571,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8393285799168153</v>
+        <v>0.8279530600118836</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7947712418300654</v>
+        <v>0.7588235294117648</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7212481962481962</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9040598290598292</v>
+        <v>0.9115355233002292</v>
       </c>
     </row>
     <row r="39">
@@ -1601,19 +1601,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5943077837195484</v>
+        <v>0.1876589423648247</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5727272727272726</v>
+        <v>0.24</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7575163398692811</v>
+        <v>0.788888888888889</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6468954248366013</v>
+        <v>0.1740740740740741</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7493447056376118</v>
+        <v>0.7047619047619047</v>
       </c>
     </row>
     <row r="40">
@@ -1631,19 +1631,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8187581699346407</v>
+        <v>0.8132026143790849</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F40" t="n">
-        <v>0.711764705882353</v>
+        <v>0.7248366013071895</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6706837606837608</v>
+        <v>0.6699974861739568</v>
       </c>
       <c r="H40" t="n">
-        <v>0.931111111111111</v>
+        <v>0.9202392344497607</v>
       </c>
     </row>
     <row r="41">
@@ -1661,19 +1661,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8170766488413548</v>
+        <v>0.8200772430184194</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7327272727272727</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8849673202614378</v>
+        <v>0.8522875816993464</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8143006993006994</v>
+        <v>0.7730952380952381</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8538978015448604</v>
+        <v>0.8626587301587302</v>
       </c>
     </row>
     <row r="42">
@@ -1691,19 +1691,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8301901366607251</v>
+        <v>0.7957159833630423</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8472727272727273</v>
+        <v>0.86</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7745098039215685</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="G42" t="n">
-        <v>0.710050505050505</v>
+        <v>0.6383838383838384</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9122058823529411</v>
+        <v>0.9188412206988058</v>
       </c>
     </row>
     <row r="43">
@@ -1721,19 +1721,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.7553535353535354</v>
+        <v>0.8110635769459298</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7672727272727273</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7594771241830066</v>
+        <v>0.7359477124183007</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6627752639517345</v>
+        <v>0.6707936507936509</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8555462519936204</v>
+        <v>0.8993894993894994</v>
       </c>
     </row>
     <row r="44">
@@ -1751,19 +1751,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8274806892453951</v>
+        <v>0.8198692810457515</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7241830065359478</v>
+        <v>0.7477124183006536</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6889449112978525</v>
+        <v>0.6894117647058824</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9215007215007216</v>
+        <v>0.9058974358974361</v>
       </c>
     </row>
     <row r="45">
@@ -1781,19 +1781,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.835632798573975</v>
+        <v>0.830035650623886</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.770909090909091</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8522875816993464</v>
+        <v>0.8516339869281045</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7672077922077923</v>
+        <v>0.7740259740259741</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8661718020541551</v>
+        <v>0.8653991596638655</v>
       </c>
     </row>
     <row r="46">
@@ -1811,19 +1811,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8325787284610815</v>
+        <v>0.8265775401069518</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7836601307189542</v>
+        <v>0.815686274509804</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7318253968253969</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9192063492063494</v>
+        <v>0.9098684210526315</v>
       </c>
     </row>
     <row r="47">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7553535353535354</v>
+        <v>0.8253000594177065</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7672727272727273</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7594771241830066</v>
+        <v>0.7254901960784315</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6627752639517345</v>
+        <v>0.6686274509803921</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8555462519936204</v>
+        <v>0.910878010878011</v>
       </c>
     </row>
     <row r="48">
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8328698752228163</v>
+        <v>0.8340225787284611</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8836363636363636</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7150326797385621</v>
+        <v>0.7477124183006536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6567923579688285</v>
+        <v>0.6961111111111111</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9266666666666665</v>
+        <v>0.9308142150247413</v>
       </c>
     </row>
     <row r="49">
@@ -1901,19 +1901,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8385918003565063</v>
+        <v>0.8375638740344623</v>
       </c>
       <c r="E49" t="n">
-        <v>0.830909090909091</v>
+        <v>0.7509090909090909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.807843137254902</v>
+        <v>0.8509803921568627</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7257631257631256</v>
+        <v>0.7755555555555556</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8925877192982457</v>
+        <v>0.8551518218623482</v>
       </c>
     </row>
     <row r="50">
@@ -1931,19 +1931,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.83718954248366</v>
+        <v>0.8486749851455734</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7830065359477125</v>
+        <v>0.7464052287581698</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7091269841269841</v>
+        <v>0.73343653250774</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8999686716791981</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1961,19 +1961,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.769382055852644</v>
+        <v>0.8157159833630422</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8290909090909091</v>
+        <v>0.8236363636363636</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7045751633986929</v>
+        <v>0.7699346405228759</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6240384615384615</v>
+        <v>0.7313492063492063</v>
       </c>
       <c r="H51" t="n">
-        <v>0.877948717948718</v>
+        <v>0.903485987696514</v>
       </c>
     </row>
     <row r="52">
@@ -1991,19 +1991,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8524539512774807</v>
+        <v>0.8266607248960189</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8618181818181819</v>
+        <v>0.9218181818181819</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7823529411764707</v>
+        <v>0.7143790849673203</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7149603174603174</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="H52" t="n">
-        <v>0.916528500739027</v>
+        <v>0.9530364372469636</v>
       </c>
     </row>
     <row r="53">
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8660368389780155</v>
+        <v>0.8539809863339276</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9072727272727272</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8071895424836601</v>
+        <v>0.7372549019607844</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7351648351648352</v>
+        <v>0.6708208458208458</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9366666666666668</v>
+        <v>0.9178991596638655</v>
       </c>
     </row>
     <row r="54">
@@ -2051,19 +2051,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8536898395721926</v>
+        <v>0.8418419489007725</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8836363636363636</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7601307189542483</v>
+        <v>0.7359477124183007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6952075702075702</v>
+        <v>0.6872005772005773</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9241353383458648</v>
+        <v>0.9306059265811587</v>
       </c>
     </row>
     <row r="55">
@@ -2081,19 +2081,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.7755912061794414</v>
+        <v>0.159144385026738</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6339869281045752</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6097402597402597</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="56">
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8687462863933453</v>
+        <v>0.8494117647058823</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8818181818181818</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8052287581699347</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7384615384615384</v>
+        <v>0.6784615384615383</v>
       </c>
       <c r="H56" t="n">
-        <v>0.926837606837607</v>
+        <v>0.9225641025641027</v>
       </c>
     </row>
     <row r="57">
@@ -2141,19 +2141,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8681342840166369</v>
+        <v>0.8583422459893049</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9236363636363636</v>
+        <v>0.8872727272727273</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7712418300653596</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7191919191919192</v>
+        <v>0.6845301757066463</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9507352941176471</v>
+        <v>0.9197383498854087</v>
       </c>
     </row>
     <row r="58">
@@ -2171,19 +2171,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.8471063576945929</v>
+        <v>0.8230778371954843</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.9254545454545454</v>
       </c>
       <c r="F58" t="n">
-        <v>0.738562091503268</v>
+        <v>0.6718954248366014</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7048223834988541</v>
+        <v>0.6303913630229419</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.9425641025641027</v>
       </c>
     </row>
     <row r="59">
@@ -2201,19 +2201,19 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7755912061794414</v>
+        <v>0.1592275698158051</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6339869281045752</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6097402597402597</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="60">
@@ -2231,19 +2231,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8710516934046346</v>
+        <v>0.8483422459893049</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9036363636363637</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7836601307189544</v>
+        <v>0.7594771241830066</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7212703962703962</v>
+        <v>0.694047619047619</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9359879336349926</v>
+        <v>0.9279487179487178</v>
       </c>
     </row>
     <row r="61">
@@ -2261,19 +2261,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.8768568033273916</v>
+        <v>0.8627866904337493</v>
       </c>
       <c r="E61" t="n">
-        <v>0.96</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7359477124183006</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6952237305178481</v>
+        <v>0.684926184926185</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.9278431372549019</v>
       </c>
     </row>
     <row r="62">
@@ -2291,19 +2291,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8281758764111705</v>
+        <v>0.8176470588235294</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9018181818181817</v>
+        <v>0.8618181818181819</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7254901960784315</v>
+        <v>0.7477124183006537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6641469641469641</v>
+        <v>0.7169934640522875</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9359879336349926</v>
+        <v>0.9148546190651453</v>
       </c>
     </row>
     <row r="63">
@@ -2321,19 +2321,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7755912061794414</v>
+        <v>0.1571717171717172</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6339869281045752</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6097402597402597</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="64">
@@ -2351,19 +2351,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.872038027332145</v>
+        <v>0.8504396910279264</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8818181818181818</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7947712418300654</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7302164502164502</v>
+        <v>0.6784615384615383</v>
       </c>
       <c r="H64" t="n">
-        <v>0.921403433168139</v>
+        <v>0.9225641025641027</v>
       </c>
     </row>
     <row r="65">
@@ -2381,19 +2381,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.860190136660725</v>
+        <v>0.8592038027332146</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9218181818181819</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.7143790849673202</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6991864344805521</v>
+        <v>0.6633278486219663</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9513725490196079</v>
+        <v>0.9464705882352942</v>
       </c>
     </row>
     <row r="66">
@@ -2411,19 +2411,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8489542483660131</v>
+        <v>0.849453357100416</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9236363636363636</v>
+        <v>0.8054545454545454</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7392156862745098</v>
+        <v>0.8169934640522876</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6813375350140056</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0.95</v>
+        <v>0.881043956043956</v>
       </c>
     </row>
     <row r="67">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.7756327985739749</v>
+        <v>0.1723945335710041</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6339869281045752</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6097402597402597</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="68">
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8611764705882352</v>
+        <v>0.8338978015448604</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7934640522875818</v>
+        <v>0.7712418300653596</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7344932844932844</v>
+        <v>0.6905827505827504</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.8990346907993967</v>
       </c>
     </row>
     <row r="69">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.8592038027332144</v>
+        <v>0.8426203208556149</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8054545454545454</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7241830065359478</v>
+        <v>0.8163398692810458</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6783605283605284</v>
+        <v>0.7587823940765117</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9506372549019607</v>
+        <v>0.8914795008912655</v>
       </c>
     </row>
     <row r="70">
@@ -2531,19 +2531,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8150089126559715</v>
+        <v>0.8154248366013072</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9054545454545455</v>
+        <v>0.8436363636363635</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7052287581699346</v>
+        <v>0.7372549019607844</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6494047619047618</v>
+        <v>0.6994047619047619</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9273809523809524</v>
+        <v>0.9006327006327007</v>
       </c>
     </row>
     <row r="71">
@@ -2561,19 +2561,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.7767023172905525</v>
+        <v>0.8285086155674393</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9</v>
+        <v>0.7872727272727273</v>
       </c>
       <c r="F71" t="n">
-        <v>0.634640522875817</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5995308123249299</v>
+        <v>0.7195221445221446</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9297619047619048</v>
+        <v>0.8706938159879336</v>
       </c>
     </row>
     <row r="72">
@@ -2591,19 +2591,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.8664408793820557</v>
+        <v>0.8327035056446821</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.7854545454545455</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8274509803921569</v>
+        <v>0.8392156862745098</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7702043054984231</v>
+        <v>0.7662393162393162</v>
       </c>
       <c r="H72" t="n">
-        <v>0.927878787878788</v>
+        <v>0.8797748742485585</v>
       </c>
     </row>
     <row r="73">
@@ -2621,19 +2621,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.8513012477718359</v>
+        <v>0.8415092097445038</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9</v>
+        <v>0.8054545454545454</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7359477124183007</v>
+        <v>0.8052287581699347</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6856599609540786</v>
+        <v>0.7466611819552995</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9399626517273576</v>
+        <v>0.8900089126559715</v>
       </c>
     </row>
     <row r="74">
@@ -2651,19 +2651,19 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.8390790255496137</v>
+        <v>0.8120499108734404</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8654545454545455</v>
+        <v>0.9</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7836601307189542</v>
+        <v>0.6901960784313725</v>
       </c>
       <c r="G74" t="n">
-        <v>0.711013986013986</v>
+        <v>0.6615831244778614</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9096078431372548</v>
+        <v>0.9403296703296704</v>
       </c>
     </row>
     <row r="75">
@@ -2681,19 +2681,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.7767023172905525</v>
+        <v>0.6918003565062388</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9</v>
+        <v>0.6072727272727272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.634640522875817</v>
+        <v>0.861437908496732</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5995308123249299</v>
+        <v>0.5898989898989899</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9297619047619048</v>
+        <v>0.8147348008029122</v>
       </c>
     </row>
     <row r="76">
@@ -2711,19 +2711,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8611348781937018</v>
+        <v>0.8426203208556149</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8045751633986928</v>
+        <v>0.7503267973856209</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7457953810894987</v>
+        <v>0.7003267973856209</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9225210084033615</v>
+        <v>0.920380934854619</v>
       </c>
     </row>
     <row r="77">
@@ -2741,19 +2741,19 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8492038027332146</v>
+        <v>0.850273321449792</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7359477124183007</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6856599609540786</v>
+        <v>0.6989819004524886</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9399626517273576</v>
+        <v>0.9251515151515152</v>
       </c>
     </row>
     <row r="78">
@@ -2771,19 +2771,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.8654545454545455</v>
+        <v>0.8367320261437909</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9036363636363637</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7941176470588236</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7359615384615384</v>
+        <v>0.6869513819513819</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9505555555555556</v>
+        <v>0.935518207282913</v>
       </c>
     </row>
     <row r="79">
@@ -2801,19 +2801,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.7797029114676173</v>
+        <v>0.6961200237670825</v>
       </c>
       <c r="E79" t="n">
-        <v>0.86</v>
+        <v>0.6618181818181819</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6901960784313725</v>
+        <v>0.8254901960784313</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6352159605100781</v>
+        <v>0.586111111111111</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9145098039215686</v>
+        <v>0.8516078658183922</v>
       </c>
     </row>
     <row r="80">
@@ -2831,19 +2831,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.8687462863933453</v>
+        <v>0.8470647653000596</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8392156862745098</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7812362637362638</v>
+        <v>0.7339935064935065</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9241269841269842</v>
+        <v>0.9299019607843138</v>
       </c>
     </row>
     <row r="81">
@@ -2861,19 +2861,19 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.8579263220439692</v>
+        <v>0.8598989898989899</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8261437908496733</v>
+        <v>0.7816993464052288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7919117647058823</v>
+        <v>0.7438348416289593</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9211363636363636</v>
+        <v>0.9369696969696969</v>
       </c>
     </row>
   </sheetData>
@@ -2952,19 +2952,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8768568033273916</v>
+        <v>0.8627866904337493</v>
       </c>
       <c r="E2" t="n">
-        <v>0.96</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7359477124183006</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6952237305178481</v>
+        <v>0.684926184926185</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.9278431372549019</v>
       </c>
     </row>
     <row r="3">
@@ -2974,27 +2974,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.872038027332145</v>
+        <v>0.8598989898989899</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8818181818181818</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7947712418300654</v>
+        <v>0.7816993464052288</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7302164502164502</v>
+        <v>0.7438348416289593</v>
       </c>
       <c r="H3" t="n">
-        <v>0.921403433168139</v>
+        <v>0.9369696969696969</v>
       </c>
     </row>
     <row r="4">
@@ -3004,27 +3004,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8710516934046346</v>
+        <v>0.8592038027332146</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9036363636363637</v>
+        <v>0.9218181818181819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7836601307189544</v>
+        <v>0.7143790849673202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7212703962703962</v>
+        <v>0.6633278486219663</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9359879336349926</v>
+        <v>0.9464705882352942</v>
       </c>
     </row>
     <row r="5">
@@ -3034,27 +3034,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8687462863933453</v>
+        <v>0.8583422459893049</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8872727272727273</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8392156862745098</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7812362637362638</v>
+        <v>0.6845301757066463</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9241269841269842</v>
+        <v>0.9197383498854087</v>
       </c>
     </row>
     <row r="6">
@@ -3064,27 +3064,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8687462863933453</v>
+        <v>0.8539809863339276</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8818181818181818</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8052287581699347</v>
+        <v>0.7372549019607844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7384615384615384</v>
+        <v>0.6708208458208458</v>
       </c>
       <c r="H6" t="n">
-        <v>0.926837606837607</v>
+        <v>0.9178991596638655</v>
       </c>
     </row>
     <row r="7">
@@ -3094,27 +3094,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8681342840166369</v>
+        <v>0.8504396910279264</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9236363636363636</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7712418300653596</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7191919191919192</v>
+        <v>0.6784615384615383</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9507352941176471</v>
+        <v>0.9225641025641027</v>
       </c>
     </row>
     <row r="8">
@@ -3124,27 +3124,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8664408793820557</v>
+        <v>0.850273321449792</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8274509803921569</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7702043054984231</v>
+        <v>0.6989819004524886</v>
       </c>
       <c r="H8" t="n">
-        <v>0.927878787878788</v>
+        <v>0.9251515151515152</v>
       </c>
     </row>
     <row r="9">
@@ -3154,27 +3154,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8660368389780155</v>
+        <v>0.849453357100416</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9072727272727272</v>
+        <v>0.8054545454545454</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8071895424836601</v>
+        <v>0.8169934640522876</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7351648351648352</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9366666666666668</v>
+        <v>0.881043956043956</v>
       </c>
     </row>
     <row r="10">
@@ -3184,27 +3184,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8654545454545455</v>
+        <v>0.8494117647058823</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7941176470588236</v>
+        <v>0.7490196078431374</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7359615384615384</v>
+        <v>0.6784615384615383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9505555555555556</v>
+        <v>0.9225641025641027</v>
       </c>
     </row>
     <row r="11">
@@ -3214,27 +3214,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8611764705882352</v>
+        <v>0.8486749851455734</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7934640522875818</v>
+        <v>0.7464052287581698</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7344932844932844</v>
+        <v>0.73343653250774</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8611348781937018</v>
+        <v>0.8483422459893049</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8045751633986928</v>
+        <v>0.7594771241830066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7457953810894987</v>
+        <v>0.694047619047619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9225210084033615</v>
+        <v>0.9279487179487178</v>
       </c>
     </row>
     <row r="13">
@@ -3274,27 +3274,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.860190136660725</v>
+        <v>0.8470647653000596</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6991864344805521</v>
+        <v>0.7339935064935065</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9513725490196079</v>
+        <v>0.9299019607843138</v>
       </c>
     </row>
     <row r="14">
@@ -3304,27 +3304,27 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8592038027332144</v>
+        <v>0.8426203208556149</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7241830065359478</v>
+        <v>0.7503267973856209</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6783605283605284</v>
+        <v>0.7003267973856209</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9506372549019607</v>
+        <v>0.920380934854619</v>
       </c>
     </row>
     <row r="15">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8579263220439692</v>
+        <v>0.8426203208556149</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8054545454545454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8261437908496733</v>
+        <v>0.8163398692810458</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7919117647058823</v>
+        <v>0.7587823940765117</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9211363636363636</v>
+        <v>0.8914795008912655</v>
       </c>
     </row>
     <row r="16">
@@ -3372,19 +3372,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8536898395721926</v>
+        <v>0.8418419489007725</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8836363636363636</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7601307189542483</v>
+        <v>0.7359477124183007</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6952075702075702</v>
+        <v>0.6872005772005773</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9241353383458648</v>
+        <v>0.9306059265811587</v>
       </c>
     </row>
     <row r="17">
@@ -3394,27 +3394,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8524539512774807</v>
+        <v>0.8415092097445038</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8618181818181819</v>
+        <v>0.8054545454545454</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7823529411764707</v>
+        <v>0.8052287581699347</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7149603174603174</v>
+        <v>0.7466611819552995</v>
       </c>
       <c r="H17" t="n">
-        <v>0.916528500739027</v>
+        <v>0.8900089126559715</v>
       </c>
     </row>
     <row r="18">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3432,19 +3432,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8513012477718359</v>
+        <v>0.8375638740344623</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9</v>
+        <v>0.7509090909090909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7359477124183007</v>
+        <v>0.8509803921568627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6856599609540786</v>
+        <v>0.7755555555555556</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9399626517273576</v>
+        <v>0.8551518218623482</v>
       </c>
     </row>
     <row r="19">
@@ -3454,27 +3454,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8492038027332146</v>
+        <v>0.8367320261437909</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9</v>
+        <v>0.9036363636363637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7359477124183007</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6856599609540786</v>
+        <v>0.6869513819513819</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9399626517273576</v>
+        <v>0.935518207282913</v>
       </c>
     </row>
     <row r="20">
@@ -3484,27 +3484,27 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8489542483660131</v>
+        <v>0.8340225787284611</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9236363636363636</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7392156862745098</v>
+        <v>0.7477124183006536</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6813375350140056</v>
+        <v>0.6961111111111111</v>
       </c>
       <c r="H20" t="n">
-        <v>0.95</v>
+        <v>0.9308142150247413</v>
       </c>
     </row>
     <row r="21">
@@ -3514,27 +3514,27 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8471063576945929</v>
+        <v>0.8338978015448604</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F21" t="n">
-        <v>0.738562091503268</v>
+        <v>0.7712418300653596</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7048223834988541</v>
+        <v>0.6905827505827504</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.8990346907993967</v>
       </c>
     </row>
     <row r="22">
@@ -3544,27 +3544,27 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8393285799168153</v>
+        <v>0.8327035056446821</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.7854545454545455</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7947712418300654</v>
+        <v>0.8392156862745098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7662393162393162</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9040598290598292</v>
+        <v>0.8797748742485585</v>
       </c>
     </row>
     <row r="23">
@@ -3574,27 +3574,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8390790255496137</v>
+        <v>0.830035650623886</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8654545454545455</v>
+        <v>0.770909090909091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7836601307189542</v>
+        <v>0.8516339869281045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.711013986013986</v>
+        <v>0.7740259740259741</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9096078431372548</v>
+        <v>0.8653991596638655</v>
       </c>
     </row>
     <row r="24">
@@ -3604,27 +3604,27 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8385918003565063</v>
+        <v>0.8285086155674393</v>
       </c>
       <c r="E24" t="n">
-        <v>0.830909090909091</v>
+        <v>0.7872727272727273</v>
       </c>
       <c r="F24" t="n">
-        <v>0.807843137254902</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7257631257631256</v>
+        <v>0.7195221445221446</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8925877192982457</v>
+        <v>0.8706938159879336</v>
       </c>
     </row>
     <row r="25">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3642,19 +3642,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.83718954248366</v>
+        <v>0.8279530600118836</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7830065359477125</v>
+        <v>0.7588235294117648</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7091269841269841</v>
+        <v>0.7212481962481962</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8999686716791981</v>
+        <v>0.9115355233002292</v>
       </c>
     </row>
     <row r="26">
@@ -3664,27 +3664,27 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.835632798573975</v>
+        <v>0.8266607248960189</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.9218181818181819</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8522875816993464</v>
+        <v>0.7143790849673203</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7672077922077923</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8661718020541551</v>
+        <v>0.9530364372469636</v>
       </c>
     </row>
     <row r="27">
@@ -3698,23 +3698,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8328698752228163</v>
+        <v>0.8265775401069518</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8836363636363636</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7150326797385621</v>
+        <v>0.815686274509804</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6567923579688285</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9266666666666665</v>
+        <v>0.9098684210526315</v>
       </c>
     </row>
     <row r="28">
@@ -3728,23 +3728,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8325787284610815</v>
+        <v>0.8253000594177065</v>
       </c>
       <c r="E28" t="n">
         <v>0.8636363636363636</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7836601307189542</v>
+        <v>0.7254901960784315</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7318253968253969</v>
+        <v>0.6686274509803921</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9192063492063494</v>
+        <v>0.910878010878011</v>
       </c>
     </row>
     <row r="29">
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3762,19 +3762,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8301901366607251</v>
+        <v>0.8230778371954843</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8472727272727273</v>
+        <v>0.9254545454545454</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7745098039215685</v>
+        <v>0.6718954248366014</v>
       </c>
       <c r="G29" t="n">
-        <v>0.710050505050505</v>
+        <v>0.6303913630229419</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9122058823529411</v>
+        <v>0.9425641025641027</v>
       </c>
     </row>
     <row r="30">
@@ -3784,27 +3784,27 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8281758764111705</v>
+        <v>0.8200772430184194</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9018181818181817</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7254901960784315</v>
+        <v>0.8522875816993464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6641469641469641</v>
+        <v>0.7730952380952381</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9359879336349926</v>
+        <v>0.8626587301587302</v>
       </c>
     </row>
     <row r="31">
@@ -3822,19 +3822,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8274806892453951</v>
+        <v>0.8198692810457515</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7241830065359478</v>
+        <v>0.7477124183006536</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6889449112978525</v>
+        <v>0.6894117647058824</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9215007215007216</v>
+        <v>0.9058974358974361</v>
       </c>
     </row>
     <row r="32">
@@ -3844,27 +3844,27 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8244682115270351</v>
+        <v>0.8198692810457515</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7472727272727273</v>
+        <v>0.7872727272727272</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8176470588235294</v>
+        <v>0.8045751633986928</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7295815295815297</v>
+        <v>0.7412351391298759</v>
       </c>
       <c r="H32" t="n">
-        <v>0.852174554032139</v>
+        <v>0.8842439431913116</v>
       </c>
     </row>
     <row r="33">
@@ -3874,27 +3874,27 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8216755793226381</v>
+        <v>0.8178134284016638</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7854545454545455</v>
+        <v>0.6963636363636363</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7928104575163399</v>
+        <v>0.8758169934640524</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7176767676767677</v>
+        <v>0.7849999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8810160427807487</v>
+        <v>0.8353968253968255</v>
       </c>
     </row>
     <row r="34">
@@ -3904,27 +3904,27 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8194117647058823</v>
+        <v>0.8176470588235294</v>
       </c>
       <c r="E34" t="n">
         <v>0.8618181818181819</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7248366013071895</v>
+        <v>0.7477124183006537</v>
       </c>
       <c r="G34" t="n">
-        <v>0.659017094017094</v>
+        <v>0.7169934640522875</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9116666666666667</v>
+        <v>0.9148546190651453</v>
       </c>
     </row>
     <row r="35">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3942,19 +3942,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8187581699346407</v>
+        <v>0.8162032085561497</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8272727272727274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.711764705882353</v>
+        <v>0.7725490196078431</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6706837606837608</v>
+        <v>0.6888278388278388</v>
       </c>
       <c r="H35" t="n">
-        <v>0.931111111111111</v>
+        <v>0.8923809523809524</v>
       </c>
     </row>
     <row r="36">
@@ -3964,27 +3964,27 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8170766488413548</v>
+        <v>0.8157159833630422</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7327272727272727</v>
+        <v>0.8236363636363636</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8849673202614378</v>
+        <v>0.7699346405228759</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8143006993006994</v>
+        <v>0.7313492063492063</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8538978015448604</v>
+        <v>0.903485987696514</v>
       </c>
     </row>
     <row r="37">
@@ -3994,27 +3994,27 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8167439096850861</v>
+        <v>0.8154248366013072</v>
       </c>
       <c r="E37" t="n">
-        <v>0.770909090909091</v>
+        <v>0.8436363636363635</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8169934640522876</v>
+        <v>0.7372549019607844</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6994047619047619</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8658333333333333</v>
+        <v>0.9006327006327007</v>
       </c>
     </row>
     <row r="38">
@@ -4024,27 +4024,27 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8166755793226382</v>
+        <v>0.8132026143790849</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8272727272727274</v>
+        <v>0.8836363636363636</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7718954248366013</v>
+        <v>0.7248366013071895</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6885714285714285</v>
+        <v>0.6699974861739568</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8825396825396826</v>
+        <v>0.9202392344497607</v>
       </c>
     </row>
     <row r="39">
@@ -4054,27 +4054,27 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8150089126559715</v>
+        <v>0.8128282828282829</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9054545454545455</v>
+        <v>0.8036363636363637</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7052287581699346</v>
+        <v>0.769281045751634</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6494047619047618</v>
+        <v>0.7064821143768512</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9273809523809524</v>
+        <v>0.88994461420932</v>
       </c>
     </row>
     <row r="40">
@@ -4084,27 +4084,27 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8130778371954843</v>
+        <v>0.8120499108734404</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8090909090909092</v>
+        <v>0.9</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7607843137254902</v>
+        <v>0.6901960784313725</v>
       </c>
       <c r="G40" t="n">
-        <v>0.675</v>
+        <v>0.6615831244778614</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.9403296703296704</v>
       </c>
     </row>
     <row r="41">
@@ -4114,27 +4114,27 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8101188354129532</v>
+        <v>0.8110635769459298</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7163636363636363</v>
+        <v>0.8436363636363637</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8647058823529411</v>
+        <v>0.7359477124183007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7753174603174602</v>
+        <v>0.6707936507936509</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8469423558897244</v>
+        <v>0.8993894993894994</v>
       </c>
     </row>
     <row r="42">
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4152,19 +4152,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8069934640522876</v>
+        <v>0.8100356506238858</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7145454545454546</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8640522875816995</v>
+        <v>0.8320261437908497</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7634615384615385</v>
+        <v>0.7377289377289378</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8397619047619047</v>
       </c>
     </row>
     <row r="43">
@@ -4174,27 +4174,27 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.801509209744504</v>
+        <v>0.8064111705288175</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8618181818181817</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6803921568627451</v>
+        <v>0.7117647058823529</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6361111111111111</v>
+        <v>0.6700404858299596</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9067543859649122</v>
+        <v>0.9162121212121213</v>
       </c>
     </row>
     <row r="44">
@@ -4204,27 +4204,27 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7872935234699939</v>
+        <v>0.8032442067736186</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8072727272727273</v>
+        <v>0.8290909090909091</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7509803921568629</v>
+        <v>0.738562091503268</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6877923976608187</v>
+        <v>0.6551098901098901</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8801169590643274</v>
+        <v>0.8857142857142858</v>
       </c>
     </row>
     <row r="45">
@@ -4234,27 +4234,27 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7811051693404635</v>
+        <v>0.8025430778371956</v>
       </c>
       <c r="E45" t="n">
-        <v>0.769090909090909</v>
+        <v>0.770909090909091</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8071895424836601</v>
+        <v>0.7849673202614378</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7938995215311004</v>
+        <v>0.6833333333333332</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8834733893557424</v>
+        <v>0.8568376068376068</v>
       </c>
     </row>
     <row r="46">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -4272,19 +4272,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.7797029114676173</v>
+        <v>0.8023826500297089</v>
       </c>
       <c r="E46" t="n">
-        <v>0.86</v>
+        <v>0.8290909090909091</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6901960784313725</v>
+        <v>0.7261437908496732</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6352159605100781</v>
+        <v>0.6492948717948718</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9145098039215686</v>
+        <v>0.8825</v>
       </c>
     </row>
     <row r="47">
@@ -4294,27 +4294,27 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7767855020796197</v>
+        <v>0.8022162804515747</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7672727272727273</v>
+        <v>0.7854545454545455</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7496732026143791</v>
+        <v>0.7581699346405228</v>
       </c>
       <c r="G47" t="n">
-        <v>0.669360902255639</v>
+        <v>0.6859803921568628</v>
       </c>
       <c r="H47" t="n">
-        <v>0.866109022556391</v>
+        <v>0.8627156177156177</v>
       </c>
     </row>
     <row r="48">
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -4332,19 +4332,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7767023172905525</v>
+        <v>0.7988829471182413</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9</v>
+        <v>0.8654545454545455</v>
       </c>
       <c r="F48" t="n">
-        <v>0.634640522875817</v>
+        <v>0.7143790849673203</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5995308123249299</v>
+        <v>0.6496800258564964</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9297619047619048</v>
+        <v>0.9065800865800865</v>
       </c>
     </row>
     <row r="49">
@@ -4354,27 +4354,27 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.7767023172905525</v>
+        <v>0.7957159833630423</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F49" t="n">
-        <v>0.634640522875817</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5995308123249299</v>
+        <v>0.6383838383838384</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9297619047619048</v>
+        <v>0.9188412206988058</v>
       </c>
     </row>
     <row r="50">
@@ -4384,27 +4384,27 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.7757516339869281</v>
+        <v>0.7881877599524658</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7509090909090909</v>
+        <v>0.6581818181818182</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7627450980392156</v>
+        <v>0.8993464052287582</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.8415584415584416</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8528787878787879</v>
+        <v>0.8281540284097829</v>
       </c>
     </row>
     <row r="51">
@@ -4414,27 +4414,27 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.7756327985739749</v>
+        <v>0.779007724301842</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6339869281045752</v>
+        <v>0.6784313725490195</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6097402597402597</v>
+        <v>0.6649122807017543</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.9053030303030305</v>
       </c>
     </row>
     <row r="52">
@@ -4444,27 +4444,27 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.7755912061794414</v>
+        <v>0.775187165775401</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9</v>
+        <v>0.7490909090909091</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6339869281045752</v>
+        <v>0.7941176470588236</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6097402597402597</v>
+        <v>0.6993930905695611</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.8576076555023924</v>
       </c>
     </row>
     <row r="53">
@@ -4474,27 +4474,27 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.7755912061794414</v>
+        <v>0.7725074272133096</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9</v>
+        <v>0.8090909090909092</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6339869281045752</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6097402597402597</v>
+        <v>0.6309803921568627</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.8756103545577231</v>
       </c>
     </row>
     <row r="54">
@@ -4504,27 +4504,27 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.7755912061794414</v>
+        <v>0.7724242424242423</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9</v>
+        <v>0.7290909090909091</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6339869281045752</v>
+        <v>0.7843137254901962</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6097402597402597</v>
+        <v>0.6847402597402598</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9312324929971989</v>
+        <v>0.8412324929971989</v>
       </c>
     </row>
     <row r="55">
@@ -4538,23 +4538,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.7739512774806891</v>
+        <v>0.76684789067142</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6563636363636364</v>
+        <v>0.769090909090909</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8869281045751635</v>
+        <v>0.7620915032679738</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8103174603174603</v>
+        <v>0.7220095693779904</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8267974283534925</v>
+        <v>0.8572455648926237</v>
       </c>
     </row>
     <row r="56">
@@ -4564,27 +4564,27 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.769382055852644</v>
+        <v>0.765632798573975</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8290909090909091</v>
+        <v>0.8072727272727274</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7045751633986929</v>
+        <v>0.7274509803921567</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6240384615384615</v>
+        <v>0.6648154477101846</v>
       </c>
       <c r="H56" t="n">
-        <v>0.877948717948718</v>
+        <v>0.879327731092437</v>
       </c>
     </row>
     <row r="57">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4602,19 +4602,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.7642780748663101</v>
+        <v>0.7618478906714201</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7890909090909091</v>
+        <v>0.8072727272727273</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7509803921568627</v>
+        <v>0.6934640522875817</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6862184873949581</v>
+        <v>0.6524641148325359</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8696081696081697</v>
+        <v>0.878954248366013</v>
       </c>
     </row>
     <row r="58">
@@ -4624,27 +4624,27 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.76407605466429</v>
+        <v>0.7559239453357101</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7072727272727273</v>
+        <v>0.7672727272727273</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8267973856209151</v>
+        <v>0.7379084967320261</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7945238095238094</v>
+        <v>0.652297410192147</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8645454545454545</v>
+        <v>0.862218045112782</v>
       </c>
     </row>
     <row r="59">
@@ -4654,27 +4654,27 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7623054070112893</v>
+        <v>0.7542721330956624</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8109090909090909</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7398692810457516</v>
+        <v>0.7379084967320262</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7093535978984895</v>
+        <v>0.7139592760180996</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8773767082590611</v>
+        <v>0.8591515151515152</v>
       </c>
     </row>
     <row r="60">
@@ -4684,27 +4684,27 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.7563814616755794</v>
+        <v>0.749313725490196</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6927272727272726</v>
+        <v>0.8618181818181817</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8745098039215687</v>
+        <v>0.64640522875817</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7952991452991454</v>
+        <v>0.6167026540710751</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8323712690817953</v>
+        <v>0.9041475483580748</v>
       </c>
     </row>
     <row r="61">
@@ -4714,27 +4714,27 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7553535353535354</v>
+        <v>0.7477837195484256</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7672727272727273</v>
+        <v>0.7127272727272728</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7594771241830066</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6627752639517345</v>
+        <v>0.7521212121212122</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8555462519936204</v>
+        <v>0.840316742081448</v>
       </c>
     </row>
     <row r="62">
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4752,19 +4752,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.7553535353535354</v>
+        <v>0.7437433155080214</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7672727272727273</v>
+        <v>0.7890909090909091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7594771241830066</v>
+        <v>0.6836601307189543</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6627752639517345</v>
+        <v>0.6205555555555555</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8555462519936204</v>
+        <v>0.8650375939849624</v>
       </c>
     </row>
     <row r="63">
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4782,19 +4782,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7544385026737969</v>
+        <v>0.7409506833036245</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6927272727272726</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8418300653594771</v>
+        <v>0.8294117647058824</v>
       </c>
       <c r="G63" t="n">
-        <v>0.780952380952381</v>
+        <v>0.7314102564102565</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8208333333333334</v>
+        <v>0.8344927536231884</v>
       </c>
     </row>
     <row r="64">
@@ -4804,27 +4804,27 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.7516815210932858</v>
+        <v>0.7360754604872252</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7854545454545455</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7392156862745098</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6517132867132867</v>
+        <v>0.6918648018648019</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8569467787114846</v>
+        <v>0.8330392156862745</v>
       </c>
     </row>
     <row r="65">
@@ -4838,23 +4838,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.7453119429590018</v>
+        <v>0.7319578134284017</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6745454545454546</v>
+        <v>0.769090909090909</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8633986928104574</v>
+        <v>0.7156862745098038</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7911616161616162</v>
+        <v>0.6452631578947369</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8313622291021672</v>
+        <v>0.857008547008547</v>
       </c>
     </row>
     <row r="66">
@@ -4872,19 +4872,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.744812834224599</v>
+        <v>0.7306179441473558</v>
       </c>
       <c r="E66" t="n">
-        <v>0.690909090909091</v>
+        <v>0.7090909090909092</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8169934640522876</v>
+        <v>0.7477124183006536</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7113886113886114</v>
+        <v>0.6466880341880341</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8247058823529411</v>
+        <v>0.8216541353383459</v>
       </c>
     </row>
     <row r="67">
@@ -4894,27 +4894,27 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.7329233511586454</v>
+        <v>0.7274509803921569</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7947712418300654</v>
+        <v>0.730065359477124</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7402661064425771</v>
+        <v>0.6342948717948718</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8382467532467534</v>
+        <v>0.8294017094017094</v>
       </c>
     </row>
     <row r="68">
@@ -4928,23 +4928,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.728562091503268</v>
+        <v>0.7274509803921569</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6763636363636364</v>
+        <v>0.6963636363636364</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7745098039215685</v>
+        <v>0.7522875816993464</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6427472527472528</v>
+        <v>0.6350549450549451</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8080952380952381</v>
+        <v>0.8103174603174603</v>
       </c>
     </row>
     <row r="69">
@@ -4954,27 +4954,27 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.6581580510992275</v>
+        <v>0.7161319073083779</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7290909090909091</v>
+        <v>0.6109090909090908</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6366013071895426</v>
+        <v>0.8509803921568627</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5559803921568628</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0.801048951048951</v>
+        <v>0.7977921727395412</v>
       </c>
     </row>
     <row r="70">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4992,19 +4992,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.6538591800356507</v>
+        <v>0.6961200237670825</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.6618181818181819</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6594771241830065</v>
+        <v>0.8254901960784313</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5709523809523809</v>
+        <v>0.586111111111111</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8025375939849624</v>
+        <v>0.8516078658183922</v>
       </c>
     </row>
     <row r="71">
@@ -5014,27 +5014,27 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6527688651218064</v>
+        <v>0.6958051099227569</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.7672727272727273</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6594771241830065</v>
+        <v>0.6934640522875817</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5709523809523809</v>
+        <v>0.6030283442048149</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8025375939849624</v>
+        <v>0.8396193022663612</v>
       </c>
     </row>
     <row r="72">
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -5052,19 +5052,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.6527688651218064</v>
+        <v>0.6918003565062388</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.6072727272727272</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6594771241830065</v>
+        <v>0.861437908496732</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5709523809523809</v>
+        <v>0.5898989898989899</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8025375939849624</v>
+        <v>0.8147348008029122</v>
       </c>
     </row>
     <row r="73">
@@ -5074,27 +5074,27 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.6393107546048722</v>
+        <v>0.6581580510992275</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.7290909090909091</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7346405228758169</v>
+        <v>0.6366013071895426</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6294934640522876</v>
+        <v>0.5559803921568628</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7741931904860967</v>
+        <v>0.801048951048951</v>
       </c>
     </row>
     <row r="74">
@@ -5104,27 +5104,27 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>NaiveBayes</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.6393107546048722</v>
+        <v>0.6454783125371361</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.6890909090909091</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7346405228758169</v>
+        <v>0.6588235294117648</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6294934640522876</v>
+        <v>0.5565864527629234</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7741931904860967</v>
+        <v>0.7854129530600119</v>
       </c>
     </row>
     <row r="75">
@@ -5134,27 +5134,27 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.6393107546048722</v>
+        <v>0.6021865715983363</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6072727272727273</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7346405228758169</v>
+        <v>0.8150326797385622</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6294934640522876</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7741931904860967</v>
+        <v>0.7511838403142751</v>
       </c>
     </row>
     <row r="76">
@@ -5168,23 +5168,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NaiveBayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6348247177658942</v>
+        <v>0.3418419489007725</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6690909090909091</v>
+        <v>0.2145454545454545</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6699346405228759</v>
+        <v>0.8764705882352942</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5604248366013073</v>
+        <v>0.3941176470588236</v>
       </c>
       <c r="H76" t="n">
-        <v>0.7791866028708134</v>
+        <v>0.6717051467051467</v>
       </c>
     </row>
     <row r="77">
@@ -5194,27 +5194,27 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.6284224598930482</v>
+        <v>0.1876589423648247</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4563636363636364</v>
+        <v>0.24</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9071895424836601</v>
+        <v>0.788888888888889</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6311111111111111</v>
+        <v>0.1740740740740741</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7493316624895572</v>
+        <v>0.7047619047619047</v>
       </c>
     </row>
     <row r="78">
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -5232,19 +5232,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.5943077837195484</v>
+        <v>0.1723945335710041</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5727272727272726</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7575163398692811</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6468954248366013</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7493447056376118</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="79">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -5262,19 +5262,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5423945335710042</v>
+        <v>0.1592275698158051</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6290909090909091</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6254901960784314</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4084313725490197</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7740259740259741</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="80">
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -5292,19 +5292,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.5386928104575164</v>
+        <v>0.159144385026738</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7872727272727272</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4862745098039215</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5122657952069717</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8303030303030303</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
     <row r="81">
@@ -5314,27 +5314,27 @@
         </is>
       </c>
       <c r="B81" t="n">
+        <v>16</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1571717171717172</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
         <v>1</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0.536387403446227</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.7872727272727272</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.4862745098039215</v>
-      </c>
       <c r="G81" t="n">
-        <v>0.5122657952069717</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8303030303030303</v>
+        <v>0.6285714285714287</v>
       </c>
     </row>
   </sheetData>
